--- a/exceldata/uipathhotelapp.xlsx
+++ b/exceldata/uipathhotelapp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitu Yadav\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitu Yadav\Documents\UiPath\hotelsrch\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F8BF4C-AD2F-4CA3-BCBB-7E3F988A84FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B462688E-437B-40D2-87D6-19F4B1AF86CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{459579FB-E6B6-49F2-8AAA-A855D66638FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Path</t>
   </si>
@@ -418,9 +418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C239D737-249E-40E2-99F0-B095F71C4356}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -449,41 +451,36 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
